--- a/Plan/Data_추출파일/004.숨은그림찾기테이블.xlsx
+++ b/Plan/Data_추출파일/004.숨은그림찾기테이블.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC11D2FB-C9F7-44FA-BD3D-75485E651273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9837C57D-2231-47BA-A5DD-A60B16D63297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D858051D-0892-49F7-AAD0-0848E2EAE51A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{3DA7D003-FA07-4188-B89C-33B35587C8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="004.숨은그림찾기테이블" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE70F2-48CB-4015-B4DE-39851AB1E55A}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1E5F4-A1D4-435B-8EAB-782A544C64F8}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Plan/Data_추출파일/004.숨은그림찾기테이블.xlsx
+++ b/Plan/Data_추출파일/004.숨은그림찾기테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9837C57D-2231-47BA-A5DD-A60B16D63297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8771EE2D-C064-4946-985D-3DD3A6BF5120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{3DA7D003-FA07-4188-B89C-33B35587C8AE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{0DBD3A12-108D-4817-AF57-9758334CBBCF}"/>
   </bookViews>
   <sheets>
     <sheet name="004.숨은그림찾기테이블" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1E5F4-A1D4-435B-8EAB-782A544C64F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B2282D-E00F-41EE-B28E-40BBB1BB4B8F}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Plan/Data_추출파일/004.숨은그림찾기테이블.xlsx
+++ b/Plan/Data_추출파일/004.숨은그림찾기테이블.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8771EE2D-C064-4946-985D-3DD3A6BF5120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{108C3205-EB67-45BB-9298-0E5A11B480B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{0DBD3A12-108D-4817-AF57-9758334CBBCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F54C414D-B49B-44C1-81AB-ABD576A9ACF2}"/>
   </bookViews>
   <sheets>
     <sheet name="004.숨은그림찾기테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -42,7 +42,7 @@
     <t>chapter_id</t>
   </si>
   <si>
-    <t>stage_group</t>
+    <t>mode_type</t>
   </si>
   <si>
     <t>map_id</t>
@@ -153,13 +153,34 @@
     <t>h_map_1</t>
   </si>
   <si>
-    <t>m1_spot1</t>
-  </si>
-  <si>
-    <t>m1_spot2</t>
-  </si>
-  <si>
-    <t>m1_spot3</t>
+    <t>spot1_1</t>
+  </si>
+  <si>
+    <t>spot2_1</t>
+  </si>
+  <si>
+    <t>spot3_1</t>
+  </si>
+  <si>
+    <t>spot4_1</t>
+  </si>
+  <si>
+    <t>spot5_1</t>
+  </si>
+  <si>
+    <t>spot6_1</t>
+  </si>
+  <si>
+    <t>spot7_1</t>
+  </si>
+  <si>
+    <t>spot8_1</t>
+  </si>
+  <si>
+    <t>spot9_1</t>
+  </si>
+  <si>
+    <t>spot10_1</t>
   </si>
   <si>
     <t>h_map_2</t>
@@ -583,7 +604,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B2282D-E00F-41EE-B28E-40BBB1BB4B8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7788FB-8FFC-4479-BE1B-AADEA6E8B122}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -600,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -743,28 +765,91 @@
         <v>39</v>
       </c>
       <c r="K2">
-        <v>-254</v>
+        <v>489</v>
       </c>
       <c r="L2">
-        <v>81</v>
+        <v>-153</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2">
-        <v>381</v>
+        <v>-256</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
         <v>41</v>
       </c>
       <c r="Q2">
-        <v>487</v>
+        <v>379</v>
       </c>
       <c r="R2">
-        <v>-157</v>
+        <v>102</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2">
+        <v>-175</v>
+      </c>
+      <c r="U2">
+        <v>152</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2">
+        <v>-420</v>
+      </c>
+      <c r="X2">
+        <v>192</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2">
+        <v>136</v>
+      </c>
+      <c r="AA2">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2">
+        <v>261</v>
+      </c>
+      <c r="AD2">
+        <v>205</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2">
+        <v>116</v>
+      </c>
+      <c r="AG2">
+        <v>-175</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2">
+        <v>-471</v>
+      </c>
+      <c r="AJ2">
+        <v>-221</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2">
+        <v>-194</v>
+      </c>
+      <c r="AM2">
+        <v>-210</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
@@ -787,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -816,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -845,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -874,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -903,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -932,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -961,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -990,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1019,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1048,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1077,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1106,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1135,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1164,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1193,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1222,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1251,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1280,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -1309,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1367,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1396,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1425,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -1454,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -1483,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -1512,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -1541,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -1570,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -1599,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -1628,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -1657,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -1686,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -1715,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -1744,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -1773,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -1802,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -1831,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -1860,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -1889,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H41">
         <v>5</v>

--- a/Plan/Data_추출파일/004.숨은그림찾기테이블.xlsx
+++ b/Plan/Data_추출파일/004.숨은그림찾기테이블.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108C3205-EB67-45BB-9298-0E5A11B480B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABA9034-0B3F-48FC-9483-A74C86B175F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F54C414D-B49B-44C1-81AB-ABD576A9ACF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07A0C173-065F-45F4-9225-055C51C95B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="004.숨은그림찾기테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,9 @@
     <t>mode_type</t>
   </si>
   <si>
+    <t>stage_group</t>
+  </si>
+  <si>
     <t>map_id</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
   </si>
   <si>
     <t>h_map_2</t>
+  </si>
+  <si>
+    <t>cloud</t>
   </si>
   <si>
     <t>h_map_3</t>
@@ -604,17 +610,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7788FB-8FFC-4479-BE1B-AADEA6E8B122}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AM41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116B56B7-F923-4C93-8C40-F7C2F5AAB6C3}">
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AM1048576"/>
+      <selection sqref="A1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -732,8 +737,11 @@
       <c r="AM1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -743,116 +751,116 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
       </c>
       <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2">
         <v>489</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-153</v>
       </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2">
         <v>-256</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>82</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2">
         <v>379</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>102</v>
       </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2">
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2">
         <v>-175</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>152</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2">
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2">
         <v>-420</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>192</v>
       </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2">
+      <c r="Z2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2">
         <v>136</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>37</v>
       </c>
-      <c r="AB2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2">
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2">
         <v>261</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>205</v>
       </c>
-      <c r="AE2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2">
+      <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2">
         <v>116</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>-175</v>
       </c>
-      <c r="AH2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2">
+      <c r="AI2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2">
         <v>-471</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>-221</v>
       </c>
-      <c r="AK2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL2">
+      <c r="AL2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2">
         <v>-194</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>-210</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -862,26 +870,26 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -891,26 +899,29 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
       </c>
       <c r="I4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -920,26 +931,29 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
       </c>
       <c r="I5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -949,26 +963,26 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
       </c>
       <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -978,26 +992,26 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
       </c>
       <c r="I7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1007,26 +1021,26 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
       </c>
       <c r="I8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1036,26 +1050,26 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
       </c>
       <c r="I9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1065,26 +1079,29 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>5</v>
+      <c r="D10" t="s">
+        <v>51</v>
       </c>
       <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
       </c>
       <c r="I10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1094,26 +1111,29 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>5</v>
+      <c r="D11" t="s">
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
       </c>
       <c r="I11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1123,26 +1143,26 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
       </c>
       <c r="I12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1152,26 +1172,26 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
       <c r="I13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1181,26 +1201,26 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
       </c>
       <c r="I14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1210,26 +1230,26 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
       </c>
       <c r="I15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1239,26 +1259,26 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
       </c>
       <c r="I16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1268,26 +1288,26 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
       </c>
       <c r="I17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1297,26 +1317,26 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>9</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
       </c>
       <c r="I18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1326,26 +1346,26 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>9</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
       </c>
       <c r="I19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1355,26 +1375,29 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>10</v>
+      <c r="D20" t="s">
+        <v>51</v>
       </c>
       <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
       </c>
       <c r="I20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1384,26 +1407,29 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>10</v>
+      <c r="D21" t="s">
+        <v>51</v>
       </c>
       <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
       </c>
       <c r="I21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1413,26 +1439,26 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
       </c>
       <c r="I22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1442,26 +1468,26 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>11</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>50</v>
       </c>
       <c r="I23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1471,26 +1497,26 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
       </c>
       <c r="I24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1500,26 +1526,26 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>12</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>24</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
       </c>
       <c r="I25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1529,26 +1555,26 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>13</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
       </c>
       <c r="I26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1558,26 +1584,26 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>13</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>26</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
       </c>
       <c r="I27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1587,26 +1613,26 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>14</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>27</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
       </c>
       <c r="I28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1616,26 +1642,26 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>14</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>28</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
       </c>
       <c r="I29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1645,26 +1671,29 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30">
         <v>15</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>29</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
       </c>
       <c r="I30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1674,26 +1703,29 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31">
         <v>15</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>30</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
       </c>
       <c r="I31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1703,26 +1735,26 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>16</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>31</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
       </c>
       <c r="I32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1732,26 +1764,26 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>16</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>32</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>61</v>
       </c>
       <c r="I33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1761,26 +1793,26 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>17</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>33</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
       </c>
       <c r="I34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1790,26 +1822,26 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>17</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>34</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
       </c>
       <c r="I35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1819,26 +1851,26 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>18</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>64</v>
       </c>
       <c r="I36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1848,26 +1880,26 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>18</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>36</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
       </c>
       <c r="I37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1877,26 +1909,26 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>19</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>37</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38">
-        <v>5</v>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>66</v>
       </c>
       <c r="I38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1906,26 +1938,26 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>38</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39">
-        <v>5</v>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>67</v>
       </c>
       <c r="I39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1935,26 +1967,29 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40">
         <v>20</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>39</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40">
-        <v>5</v>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>68</v>
       </c>
       <c r="I40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1964,22 +1999,25 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41">
         <v>20</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>40</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>69</v>
       </c>
       <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
         <v>10</v>
       </c>
     </row>
